--- a/Exam142Score.xlsx
+++ b/Exam142Score.xlsx
@@ -21,11 +21,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="63">
   <si>
     <t>姓名</t>
   </si>
   <si>
+    <t>2023/03/29_2</t>
+  </si>
+  <si>
+    <t>2023/03/29</t>
+  </si>
+  <si>
     <t>高晗燊</t>
   </si>
   <si>
@@ -188,7 +194,22 @@
     <t>赵锦鸿</t>
   </si>
   <si>
+    <t>2023/03/28</t>
+  </si>
+  <si>
+    <t>2023/03/30</t>
+  </si>
+  <si>
     <t>考号</t>
+  </si>
+  <si>
+    <t>理论满分</t>
+  </si>
+  <si>
+    <t>原始成绩</t>
+  </si>
+  <si>
+    <t>成绩占比</t>
   </si>
 </sst>
 </file>
@@ -237,12 +258,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -545,579 +573,1239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B49" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>2.0427254521171641</v>
+      </c>
+      <c r="C2">
+        <v>0.64020516212939793</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2.3150888457327858</v>
+      </c>
+      <c r="C3">
+        <v>2.3538856466171798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.95327187765467669</v>
+      </c>
+      <c r="C4">
+        <v>0.86869589339443565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.6809084840390548</v>
+      </c>
+      <c r="C5">
+        <v>1.554168087189548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.95327187765467669</v>
+      </c>
+      <c r="C6">
+        <v>6.8978333966803806E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="C7">
+        <v>0.64020516212939793</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="C8">
+        <v>0.64020516212939793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.6809084840390548</v>
+      </c>
+      <c r="C9">
+        <v>0.41171443086436033</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>-1.987438247418535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="C11">
+        <v>-0.15951239729823391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="C12">
+        <v>0.98294125902695439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="C13">
+        <v>0.29746906523184152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>-1.089453574462488</v>
+      </c>
+      <c r="C14">
+        <v>-0.27375776293075271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1.36181696807811</v>
+      </c>
+      <c r="C15">
+        <v>-0.73073922546082803</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>-1.089453574462488</v>
+      </c>
+      <c r="C16">
+        <v>-1.987438247418535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>-0.6809084840390548</v>
+      </c>
+      <c r="C17">
+        <v>0.41171443086436033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="C18">
+        <v>0.41171443086436033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="C19">
+        <v>0.41171443086436033</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>-2.451270542540597</v>
+      </c>
+      <c r="C20">
+        <v>-0.50224849419579032</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="C21">
+        <v>0.98294125902695439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>-0.6809084840390548</v>
+      </c>
+      <c r="C22">
+        <v>6.8978333966803806E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>-0.15951239729823391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="C24">
+        <v>6.8978333966803806E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="C25">
+        <v>-0.50224849419579032</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="C26">
+        <v>6.8978333966803806E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="C27">
+        <v>1.554168087189548</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>1.6341803616937309</v>
+      </c>
+      <c r="C28">
+        <v>-0.15951239729823391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0.6809084840390548</v>
+      </c>
+      <c r="C29">
+        <v>-1.6447021505209789</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>2.3150888457327858</v>
+      </c>
+      <c r="C30">
+        <v>-0.15951239729823391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>0.6809084840390548</v>
+      </c>
+      <c r="C31">
+        <v>-0.73073922546082803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>-1.089453574462488</v>
+      </c>
+      <c r="C32">
+        <v>1.2114319902919919</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>-1.089453574462488</v>
+      </c>
+      <c r="C33">
+        <v>1.43992272155703</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>1.6341803616937309</v>
+      </c>
+      <c r="C34">
+        <v>-0.15951239729823391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="C35">
+        <v>1.2114319902919919</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>-1.089453574462488</v>
+      </c>
+      <c r="C36">
+        <v>-0.84498459109334678</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>0.6809084840390548</v>
+      </c>
+      <c r="C37">
+        <v>-0.15951239729823391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>-0.6809084840390548</v>
+      </c>
+      <c r="C38">
+        <v>0.29746906523184152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="C39">
+        <v>-1.6447021505209789</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="C40">
+        <v>-1.0734753223583839</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="C41">
+        <v>0.29746906523184152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="C42">
+        <v>0.98294125902695439</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="C43">
+        <v>-0.73073922546082803</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>-0.27375776293075271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>-1.089453574462488</v>
+      </c>
+      <c r="C45">
+        <v>-0.84498459109334678</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="C46">
+        <v>6.8978333966803806E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>-1.089453574462488</v>
+      </c>
+      <c r="C47">
+        <v>0.98294125902695439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>-1.987438247418535</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="C49">
+        <v>0.41171443086436033</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="C51">
+        <v>-1.6447021505209789</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="C52">
+        <v>-0.73073922546082803</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="C53">
+        <v>1.554168087189548</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="C54">
+        <v>-0.15951239729823391</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B49" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>-2.284237285754918</v>
+      </c>
+      <c r="C2">
+        <v>0.28652782116636272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1.0114483003299071</v>
+      </c>
+      <c r="C3">
+        <v>0.2138676559902038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>-0.1615923320053699</v>
+      </c>
+      <c r="C4">
+        <v>2.46633277645113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1.179025533520661</v>
+      </c>
+      <c r="C5">
+        <v>1.5217506291610641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.22942121210638899</v>
+      </c>
+      <c r="C6">
+        <v>1.376430298808746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.22942121210638899</v>
+      </c>
+      <c r="C7">
+        <v>0.7951489773994751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.3411393675668915</v>
+      </c>
+      <c r="C8">
+        <v>2.1030319505703359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.78801198940890171</v>
+      </c>
+      <c r="C9">
+        <v>-0.65805432612370329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.3411393675668915</v>
+      </c>
+      <c r="C10">
+        <v>-2.3292381251753582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>5.9849011853838948E-3</v>
+      </c>
+      <c r="C11">
+        <v>-0.51273399577138545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0.73215291167865049</v>
+      </c>
+      <c r="C12">
+        <v>-0.1494331698905908</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.50871660075764535</v>
+      </c>
+      <c r="C13">
+        <v>0.7951489773994751</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0.56457567848789658</v>
+      </c>
+      <c r="C14">
+        <v>-0.44007383059522648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>0.45285752302739413</v>
+      </c>
+      <c r="C15">
+        <v>0.2138676559902038</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>0.84387106713915294</v>
+      </c>
+      <c r="C16">
+        <v>6.8547325637885917E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>-0.21745140973562119</v>
+      </c>
+      <c r="C17">
+        <v>0.64982864704715726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>0.39699844529714279</v>
+      </c>
+      <c r="C18">
+        <v>0.64982864704715726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>0.17356213437613771</v>
+      </c>
+      <c r="C19">
+        <v>-0.1494331698905908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0.95558922259965551</v>
+      </c>
+      <c r="C20">
+        <v>6.8547325637885917E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0.45285752302739413</v>
+      </c>
+      <c r="C21">
+        <v>0.86780914257563402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>0.73215291167865049</v>
+      </c>
+      <c r="C22">
+        <v>1.085789638104111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>6.1843978915635173E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.50450831669483942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>0.62043475621814792</v>
+      </c>
+      <c r="C24">
+        <v>-0.1494331698905908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0.22942121210638899</v>
+      </c>
+      <c r="C25">
+        <v>0.7951489773994751</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>1.625898155362671</v>
+      </c>
+      <c r="C26">
+        <v>6.8547325637885917E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>0.73215291167865049</v>
+      </c>
+      <c r="C27">
+        <v>-7.6773004714431922E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>0.67629383394839915</v>
+      </c>
+      <c r="C28">
+        <v>-7.6773004714431922E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>-0.32916956519612373</v>
+      </c>
+      <c r="C29">
+        <v>-4.112839538273E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>0.67629383394839915</v>
+      </c>
+      <c r="C30">
+        <v>-0.58539416094754437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>-0.72018310930788265</v>
+      </c>
+      <c r="C31">
+        <v>0.35918798634252158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>0.95558922259965551</v>
+      </c>
+      <c r="C32">
+        <v>0.4318481515186805</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>1.346602766711414</v>
+      </c>
+      <c r="C33">
+        <v>1.085789638104111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>-2.284237285754918</v>
+      </c>
+      <c r="C34">
+        <v>1.4490904639849049</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>-0.66432403157763142</v>
+      </c>
+      <c r="C35">
+        <v>-0.29475350024290869</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>0.3411393675668915</v>
+      </c>
+      <c r="C36">
+        <v>-7.6773004714431922E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>-4.987417654486738E-2</v>
+      </c>
+      <c r="C37">
+        <v>-0.22209333506674969</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>-2.284237285754918</v>
+      </c>
+      <c r="C38">
+        <v>-2.3292381251753582</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>0.67629383394839915</v>
+      </c>
+      <c r="C39">
+        <v>-7.6773004714431922E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>-0.32916956519612373</v>
+      </c>
+      <c r="C40">
+        <v>-0.44007383059522648</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>6.1843978915635173E-2</v>
+      </c>
+      <c r="C41">
+        <v>-0.29475350024290869</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>-0.66432403157763142</v>
+      </c>
+      <c r="C42">
+        <v>-0.87603482165218005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>-0.88776034249863645</v>
+      </c>
+      <c r="C43">
+        <v>-0.73071449129986221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>-0.72018310930788265</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>-1.0213551520044979</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>0.73215291167865049</v>
+      </c>
+      <c r="C46">
+        <v>-7.6773004714431922E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>-0.44088772065662629</v>
+      </c>
+      <c r="C47">
+        <v>1.0131294729279521</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>-2.284237285754918</v>
+      </c>
+      <c r="C48">
+        <v>-2.3292381251753582</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>-2.284237285754918</v>
+      </c>
+      <c r="C49">
+        <v>0.14120749081404491</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>-0.77604218703813388</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>1.346602766711414</v>
+      </c>
+      <c r="C51">
+        <v>-0.94869498682833897</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>-2.284237285754918</v>
+      </c>
+      <c r="C52">
+        <v>-2.3292381251753582</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>6.1843978915635173E-2</v>
+      </c>
+      <c r="C53">
+        <v>-0.1494331698905908</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>-0.10573325427511859</v>
+      </c>
+      <c r="C54">
+        <v>-0.65805432612370329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>0.67629383394839915</v>
+      </c>
+      <c r="C55">
+        <v>0.14120749081404491</v>
       </c>
     </row>
   </sheetData>
@@ -1128,11 +1816,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B56"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E8" sqref="E8"/>
+      <selection pane="topRight" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1140,448 +1828,2406 @@
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>121420100</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>80</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-2.284237285754918</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3">
+        <v>33</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2.0427254521171641</v>
+      </c>
+      <c r="I3" s="3">
+        <v>40</v>
+      </c>
+      <c r="J3" s="3">
+        <v>23</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.64020516212939793</v>
+      </c>
+      <c r="L3" s="3">
+        <v>80</v>
+      </c>
+      <c r="M3" s="3">
+        <v>36</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.28652782116636272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>121420200</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>80</v>
+      </c>
+      <c r="D4" s="3">
+        <v>59</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.0114483003299071</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45</v>
+      </c>
+      <c r="G4" s="3">
+        <v>35</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2.3150888457327858</v>
+      </c>
+      <c r="I4" s="3">
+        <v>40</v>
+      </c>
+      <c r="J4" s="3">
+        <v>38</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2.3538856466171798</v>
+      </c>
+      <c r="L4" s="3">
+        <v>80</v>
+      </c>
+      <c r="M4" s="3">
+        <v>35</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.2138676559902038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>121420300</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>80</v>
+      </c>
+      <c r="D5" s="3">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-0.1615923320053699</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45</v>
+      </c>
+      <c r="G5" s="3">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.95327187765467669</v>
+      </c>
+      <c r="I5" s="3">
+        <v>40</v>
+      </c>
+      <c r="J5" s="3">
+        <v>25</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.86869589339443565</v>
+      </c>
+      <c r="L5" s="3">
+        <v>80</v>
+      </c>
+      <c r="M5" s="3">
+        <v>66</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2.46633277645113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>121420400</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>80</v>
+      </c>
+      <c r="D6" s="3">
+        <v>62</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.179025533520661</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3">
+        <v>23</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.6809084840390548</v>
+      </c>
+      <c r="I6" s="3">
+        <v>40</v>
+      </c>
+      <c r="J6" s="3">
+        <v>31</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.554168087189548</v>
+      </c>
+      <c r="L6" s="3">
+        <v>80</v>
+      </c>
+      <c r="M6" s="3">
+        <v>53</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1.5217506291610641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>121420500</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>80</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.22942121210638899</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45</v>
+      </c>
+      <c r="G7" s="3">
+        <v>25</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.95327187765467669</v>
+      </c>
+      <c r="I7" s="3">
+        <v>40</v>
+      </c>
+      <c r="J7" s="3">
+        <v>18</v>
+      </c>
+      <c r="K7" s="3">
+        <v>6.8978333966803806E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>80</v>
+      </c>
+      <c r="M7" s="3">
+        <v>51</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1.376430298808746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>121420600</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>80</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.22942121210638899</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45</v>
+      </c>
+      <c r="G8" s="3">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="I8" s="3">
+        <v>40</v>
+      </c>
+      <c r="J8" s="3">
+        <v>23</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.64020516212939793</v>
+      </c>
+      <c r="L8" s="3">
+        <v>80</v>
+      </c>
+      <c r="M8" s="3">
+        <v>43</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.7951489773994751</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>121420700</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>80</v>
+      </c>
+      <c r="D9" s="3">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.3411393675668915</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="I9" s="3">
+        <v>40</v>
+      </c>
+      <c r="J9" s="3">
+        <v>23</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.64020516212939793</v>
+      </c>
+      <c r="L9" s="3">
+        <v>80</v>
+      </c>
+      <c r="M9" s="3">
+        <v>61</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2.1030319505703359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>121420800</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>80</v>
+      </c>
+      <c r="D10" s="3">
+        <v>55</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.78801198940890171</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3">
+        <v>23</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.6809084840390548</v>
+      </c>
+      <c r="I10" s="3">
+        <v>40</v>
+      </c>
+      <c r="J10" s="3">
+        <v>21</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.41171443086436033</v>
+      </c>
+      <c r="L10" s="3">
+        <v>80</v>
+      </c>
+      <c r="M10" s="3">
+        <v>23</v>
+      </c>
+      <c r="N10" s="3">
+        <v>-0.65805432612370329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>121420900</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <v>80</v>
+      </c>
+      <c r="D11" s="3">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.3411393675668915</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45</v>
+      </c>
+      <c r="I11" s="3">
+        <v>40</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-1.987438247418535</v>
+      </c>
+      <c r="L11" s="3">
+        <v>80</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>-2.3292381251753582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>121421000</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>80</v>
+      </c>
+      <c r="D12" s="3">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5.9849011853838948E-3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>45</v>
+      </c>
+      <c r="G12" s="3">
+        <v>20</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="I12" s="3">
+        <v>40</v>
+      </c>
+      <c r="J12" s="3">
+        <v>16</v>
+      </c>
+      <c r="K12" s="3">
+        <v>-0.15951239729823391</v>
+      </c>
+      <c r="L12" s="3">
+        <v>80</v>
+      </c>
+      <c r="M12" s="3">
+        <v>25</v>
+      </c>
+      <c r="N12" s="3">
+        <v>-0.51273399577138545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>121421100</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3">
+        <v>80</v>
+      </c>
+      <c r="D13" s="3">
+        <v>54</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.73215291167865049</v>
+      </c>
+      <c r="F13" s="3">
+        <v>45</v>
+      </c>
+      <c r="G13" s="3">
+        <v>20</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="I13" s="3">
+        <v>40</v>
+      </c>
+      <c r="J13" s="3">
+        <v>26</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.98294125902695439</v>
+      </c>
+      <c r="L13" s="3">
+        <v>80</v>
+      </c>
+      <c r="M13" s="3">
+        <v>30</v>
+      </c>
+      <c r="N13" s="3">
+        <v>-0.1494331698905908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>121421200</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3">
+        <v>80</v>
+      </c>
+      <c r="D14" s="3">
+        <v>50</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.50871660075764535</v>
+      </c>
+      <c r="F14" s="3">
+        <v>45</v>
+      </c>
+      <c r="G14" s="3">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="I14" s="3">
+        <v>40</v>
+      </c>
+      <c r="J14" s="3">
+        <v>20</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.29746906523184152</v>
+      </c>
+      <c r="L14" s="3">
+        <v>80</v>
+      </c>
+      <c r="M14" s="3">
+        <v>43</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.7951489773994751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>121421300</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3">
+        <v>80</v>
+      </c>
+      <c r="D15" s="3">
+        <v>51</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.56457567848789658</v>
+      </c>
+      <c r="F15" s="3">
+        <v>45</v>
+      </c>
+      <c r="G15" s="3">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-1.089453574462488</v>
+      </c>
+      <c r="I15" s="3">
+        <v>40</v>
+      </c>
+      <c r="J15" s="3">
+        <v>15</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-0.27375776293075271</v>
+      </c>
+      <c r="L15" s="3">
+        <v>80</v>
+      </c>
+      <c r="M15" s="3">
+        <v>26</v>
+      </c>
+      <c r="N15" s="3">
+        <v>-0.44007383059522648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>121421400</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3">
+        <v>80</v>
+      </c>
+      <c r="D16" s="3">
+        <v>49</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.45285752302739413</v>
+      </c>
+      <c r="F16" s="3">
+        <v>45</v>
+      </c>
+      <c r="G16" s="3">
+        <v>28</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1.36181696807811</v>
+      </c>
+      <c r="I16" s="3">
+        <v>40</v>
+      </c>
+      <c r="J16" s="3">
+        <v>11</v>
+      </c>
+      <c r="K16" s="3">
+        <v>-0.73073922546082803</v>
+      </c>
+      <c r="L16" s="3">
+        <v>80</v>
+      </c>
+      <c r="M16" s="3">
+        <v>35</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.2138676559902038</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>121421500</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3">
+        <v>80</v>
+      </c>
+      <c r="D17" s="3">
+        <v>56</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.84387106713915294</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45</v>
+      </c>
+      <c r="G17" s="3">
+        <v>10</v>
+      </c>
+      <c r="H17" s="3">
+        <v>-1.089453574462488</v>
+      </c>
+      <c r="I17" s="3">
+        <v>40</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>-1.987438247418535</v>
+      </c>
+      <c r="L17" s="3">
+        <v>80</v>
+      </c>
+      <c r="M17" s="3">
+        <v>33</v>
+      </c>
+      <c r="N17" s="3">
+        <v>6.8547325637885917E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>121421600</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3">
+        <v>80</v>
+      </c>
+      <c r="D18" s="3">
+        <v>37</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-0.21745140973562119</v>
+      </c>
+      <c r="F18" s="3">
+        <v>45</v>
+      </c>
+      <c r="G18" s="3">
+        <v>13</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-0.6809084840390548</v>
+      </c>
+      <c r="I18" s="3">
+        <v>40</v>
+      </c>
+      <c r="J18" s="3">
+        <v>21</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.41171443086436033</v>
+      </c>
+      <c r="L18" s="3">
+        <v>80</v>
+      </c>
+      <c r="M18" s="3">
+        <v>41</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.64982864704715726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>121421700</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3">
+        <v>80</v>
+      </c>
+      <c r="D19" s="3">
+        <v>48</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.39699844529714279</v>
+      </c>
+      <c r="F19" s="3">
+        <v>45</v>
+      </c>
+      <c r="G19" s="3">
+        <v>15</v>
+      </c>
+      <c r="H19" s="3">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="I19" s="3">
+        <v>40</v>
+      </c>
+      <c r="J19" s="3">
+        <v>21</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.41171443086436033</v>
+      </c>
+      <c r="L19" s="3">
+        <v>80</v>
+      </c>
+      <c r="M19" s="3">
+        <v>41</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.64982864704715726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>121421800</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3">
+        <v>80</v>
+      </c>
+      <c r="D20" s="3">
+        <v>44</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.17356213437613771</v>
+      </c>
+      <c r="F20" s="3">
+        <v>45</v>
+      </c>
+      <c r="G20" s="3">
+        <v>20</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="I20" s="3">
+        <v>40</v>
+      </c>
+      <c r="J20" s="3">
+        <v>21</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.41171443086436033</v>
+      </c>
+      <c r="L20" s="3">
+        <v>80</v>
+      </c>
+      <c r="M20" s="3">
+        <v>30</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-0.1494331698905908</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>121421900</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3">
+        <v>80</v>
+      </c>
+      <c r="D21" s="3">
+        <v>58</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.95558922259965551</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-2.451270542540597</v>
+      </c>
+      <c r="I21" s="3">
+        <v>40</v>
+      </c>
+      <c r="J21" s="3">
+        <v>13</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-0.50224849419579032</v>
+      </c>
+      <c r="L21" s="3">
+        <v>80</v>
+      </c>
+      <c r="M21" s="3">
+        <v>33</v>
+      </c>
+      <c r="N21" s="3">
+        <v>6.8547325637885917E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>121422000</v>
       </c>
       <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3">
+        <v>80</v>
+      </c>
+      <c r="D22" s="3">
+        <v>49</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.45285752302739413</v>
+      </c>
+      <c r="F22" s="3">
+        <v>45</v>
+      </c>
+      <c r="G22" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H22" s="3">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="I22" s="3">
+        <v>40</v>
+      </c>
+      <c r="J22" s="3">
+        <v>26</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.98294125902695439</v>
+      </c>
+      <c r="L22" s="3">
+        <v>80</v>
+      </c>
+      <c r="M22" s="3">
+        <v>44</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.86780914257563402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>121422100</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C23" s="3">
+        <v>80</v>
+      </c>
+      <c r="D23" s="3">
+        <v>54</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.73215291167865049</v>
+      </c>
+      <c r="F23" s="3">
+        <v>45</v>
+      </c>
+      <c r="G23" s="3">
+        <v>13</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-0.6809084840390548</v>
+      </c>
+      <c r="I23" s="3">
+        <v>40</v>
+      </c>
+      <c r="J23" s="3">
+        <v>18</v>
+      </c>
+      <c r="K23" s="3">
+        <v>6.8978333966803806E-2</v>
+      </c>
+      <c r="L23" s="3">
+        <v>80</v>
+      </c>
+      <c r="M23" s="3">
+        <v>47</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1.085789638104111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>121422200</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C24" s="3">
+        <v>80</v>
+      </c>
+      <c r="D24" s="3">
+        <v>42</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6.1843978915635173E-2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>45</v>
+      </c>
+      <c r="I24" s="3">
+        <v>40</v>
+      </c>
+      <c r="J24" s="3">
+        <v>16</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-0.15951239729823391</v>
+      </c>
+      <c r="L24" s="3">
+        <v>80</v>
+      </c>
+      <c r="M24" s="3">
+        <v>39</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.50450831669483942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>121422300</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C25" s="3">
+        <v>80</v>
+      </c>
+      <c r="D25" s="3">
+        <v>52</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.62043475621814792</v>
+      </c>
+      <c r="F25" s="3">
+        <v>45</v>
+      </c>
+      <c r="G25" s="3">
+        <v>15</v>
+      </c>
+      <c r="H25" s="3">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="I25" s="3">
+        <v>40</v>
+      </c>
+      <c r="J25" s="3">
+        <v>18</v>
+      </c>
+      <c r="K25" s="3">
+        <v>6.8978333966803806E-2</v>
+      </c>
+      <c r="L25" s="3">
+        <v>80</v>
+      </c>
+      <c r="M25" s="3">
+        <v>30</v>
+      </c>
+      <c r="N25" s="3">
+        <v>-0.1494331698905908</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>121422400</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C26" s="3">
+        <v>80</v>
+      </c>
+      <c r="D26" s="3">
+        <v>45</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.22942121210638899</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45</v>
+      </c>
+      <c r="G26" s="3">
+        <v>20</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="I26" s="3">
+        <v>40</v>
+      </c>
+      <c r="J26" s="3">
+        <v>13</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-0.50224849419579032</v>
+      </c>
+      <c r="L26" s="3">
+        <v>80</v>
+      </c>
+      <c r="M26" s="3">
+        <v>43</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.7951489773994751</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>121422500</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3">
+        <v>80</v>
+      </c>
+      <c r="D27" s="3">
+        <v>70</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.625898155362671</v>
+      </c>
+      <c r="F27" s="3">
+        <v>45</v>
+      </c>
+      <c r="G27" s="3">
+        <v>20</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="I27" s="3">
+        <v>40</v>
+      </c>
+      <c r="J27" s="3">
+        <v>18</v>
+      </c>
+      <c r="K27" s="3">
+        <v>6.8978333966803806E-2</v>
+      </c>
+      <c r="L27" s="3">
+        <v>80</v>
+      </c>
+      <c r="M27" s="3">
+        <v>33</v>
+      </c>
+      <c r="N27" s="3">
+        <v>6.8547325637885917E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>121422600</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="C28" s="3">
+        <v>80</v>
+      </c>
+      <c r="D28" s="3">
+        <v>54</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.73215291167865049</v>
+      </c>
+      <c r="F28" s="3">
+        <v>45</v>
+      </c>
+      <c r="G28" s="3">
+        <v>20</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="I28" s="3">
+        <v>40</v>
+      </c>
+      <c r="J28" s="3">
+        <v>31</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1.554168087189548</v>
+      </c>
+      <c r="L28" s="3">
+        <v>80</v>
+      </c>
+      <c r="M28" s="3">
+        <v>31</v>
+      </c>
+      <c r="N28" s="3">
+        <v>-7.6773004714431922E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>121422700</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C29" s="3">
+        <v>80</v>
+      </c>
+      <c r="D29" s="3">
+        <v>53</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.67629383394839915</v>
+      </c>
+      <c r="F29" s="3">
+        <v>45</v>
+      </c>
+      <c r="G29" s="3">
+        <v>30</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1.6341803616937309</v>
+      </c>
+      <c r="I29" s="3">
+        <v>40</v>
+      </c>
+      <c r="J29" s="3">
+        <v>16</v>
+      </c>
+      <c r="K29" s="3">
+        <v>-0.15951239729823391</v>
+      </c>
+      <c r="L29" s="3">
+        <v>80</v>
+      </c>
+      <c r="M29" s="3">
+        <v>31</v>
+      </c>
+      <c r="N29" s="3">
+        <v>-7.6773004714431922E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>121422800</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C30" s="3">
+        <v>80</v>
+      </c>
+      <c r="D30" s="3">
+        <v>35</v>
+      </c>
+      <c r="E30" s="3">
+        <v>-0.32916956519612373</v>
+      </c>
+      <c r="F30" s="3">
+        <v>45</v>
+      </c>
+      <c r="G30" s="3">
+        <v>23</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.6809084840390548</v>
+      </c>
+      <c r="I30" s="3">
+        <v>40</v>
+      </c>
+      <c r="J30" s="3">
+        <v>3</v>
+      </c>
+      <c r="K30" s="3">
+        <v>-1.6447021505209789</v>
+      </c>
+      <c r="L30" s="3">
+        <v>80</v>
+      </c>
+      <c r="M30" s="3">
+        <v>32</v>
+      </c>
+      <c r="N30" s="3">
+        <v>-4.112839538273E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>121422900</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C31" s="3">
+        <v>80</v>
+      </c>
+      <c r="D31" s="3">
+        <v>53</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.67629383394839915</v>
+      </c>
+      <c r="F31" s="3">
+        <v>45</v>
+      </c>
+      <c r="G31" s="3">
+        <v>35</v>
+      </c>
+      <c r="H31" s="3">
+        <v>2.3150888457327858</v>
+      </c>
+      <c r="I31" s="3">
+        <v>40</v>
+      </c>
+      <c r="J31" s="3">
+        <v>16</v>
+      </c>
+      <c r="K31" s="3">
+        <v>-0.15951239729823391</v>
+      </c>
+      <c r="L31" s="3">
+        <v>80</v>
+      </c>
+      <c r="M31" s="3">
+        <v>24</v>
+      </c>
+      <c r="N31" s="3">
+        <v>-0.58539416094754437</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>121423000</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C32" s="3">
+        <v>80</v>
+      </c>
+      <c r="D32" s="3">
+        <v>28</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-0.72018310930788265</v>
+      </c>
+      <c r="F32" s="3">
+        <v>45</v>
+      </c>
+      <c r="G32" s="3">
+        <v>23</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.6809084840390548</v>
+      </c>
+      <c r="I32" s="3">
+        <v>40</v>
+      </c>
+      <c r="J32" s="3">
+        <v>11</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-0.73073922546082803</v>
+      </c>
+      <c r="L32" s="3">
+        <v>80</v>
+      </c>
+      <c r="M32" s="3">
+        <v>37</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0.35918798634252158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>121423100</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C33" s="3">
+        <v>80</v>
+      </c>
+      <c r="D33" s="3">
+        <v>58</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.95558922259965551</v>
+      </c>
+      <c r="F33" s="3">
+        <v>45</v>
+      </c>
+      <c r="G33" s="3">
+        <v>10</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-1.089453574462488</v>
+      </c>
+      <c r="I33" s="3">
+        <v>40</v>
+      </c>
+      <c r="J33" s="3">
+        <v>28</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1.2114319902919919</v>
+      </c>
+      <c r="L33" s="3">
+        <v>80</v>
+      </c>
+      <c r="M33" s="3">
+        <v>38</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0.4318481515186805</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>121423200</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="C34" s="3">
+        <v>80</v>
+      </c>
+      <c r="D34" s="3">
+        <v>65</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1.346602766711414</v>
+      </c>
+      <c r="F34" s="3">
+        <v>45</v>
+      </c>
+      <c r="G34" s="3">
+        <v>10</v>
+      </c>
+      <c r="H34" s="3">
+        <v>-1.089453574462488</v>
+      </c>
+      <c r="I34" s="3">
+        <v>40</v>
+      </c>
+      <c r="J34" s="3">
+        <v>30</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1.43992272155703</v>
+      </c>
+      <c r="L34" s="3">
+        <v>80</v>
+      </c>
+      <c r="M34" s="3">
+        <v>47</v>
+      </c>
+      <c r="N34" s="3">
+        <v>1.085789638104111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>121423300</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3">
+        <v>80</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2.284237285754918</v>
+      </c>
+      <c r="F35" s="3">
+        <v>45</v>
+      </c>
+      <c r="G35" s="3">
+        <v>30</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1.6341803616937309</v>
+      </c>
+      <c r="I35" s="3">
+        <v>40</v>
+      </c>
+      <c r="J35" s="3">
+        <v>16</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-0.15951239729823391</v>
+      </c>
+      <c r="L35" s="3">
+        <v>80</v>
+      </c>
+      <c r="M35" s="3">
+        <v>52</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1.4490904639849049</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>121423400</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C36" s="3">
+        <v>80</v>
+      </c>
+      <c r="D36" s="3">
+        <v>29</v>
+      </c>
+      <c r="E36" s="3">
+        <v>-0.66432403157763142</v>
+      </c>
+      <c r="F36" s="3">
+        <v>45</v>
+      </c>
+      <c r="G36" s="3">
+        <v>15</v>
+      </c>
+      <c r="H36" s="3">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="I36" s="3">
+        <v>40</v>
+      </c>
+      <c r="J36" s="3">
+        <v>28</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1.2114319902919919</v>
+      </c>
+      <c r="L36" s="3">
+        <v>80</v>
+      </c>
+      <c r="M36" s="3">
+        <v>28</v>
+      </c>
+      <c r="N36" s="3">
+        <v>-0.29475350024290869</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>121423500</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C37" s="3">
+        <v>80</v>
+      </c>
+      <c r="D37" s="3">
+        <v>47</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.3411393675668915</v>
+      </c>
+      <c r="F37" s="3">
+        <v>45</v>
+      </c>
+      <c r="G37" s="3">
+        <v>10</v>
+      </c>
+      <c r="H37" s="3">
+        <v>-1.089453574462488</v>
+      </c>
+      <c r="I37" s="3">
+        <v>40</v>
+      </c>
+      <c r="J37" s="3">
+        <v>10</v>
+      </c>
+      <c r="K37" s="3">
+        <v>-0.84498459109334678</v>
+      </c>
+      <c r="L37" s="3">
+        <v>80</v>
+      </c>
+      <c r="M37" s="3">
+        <v>31</v>
+      </c>
+      <c r="N37" s="3">
+        <v>-7.6773004714431922E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>121423600</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="C38" s="3">
+        <v>80</v>
+      </c>
+      <c r="D38" s="3">
+        <v>40</v>
+      </c>
+      <c r="E38" s="3">
+        <v>-4.987417654486738E-2</v>
+      </c>
+      <c r="F38" s="3">
+        <v>45</v>
+      </c>
+      <c r="G38" s="3">
+        <v>23</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.6809084840390548</v>
+      </c>
+      <c r="I38" s="3">
+        <v>40</v>
+      </c>
+      <c r="J38" s="3">
+        <v>16</v>
+      </c>
+      <c r="K38" s="3">
+        <v>-0.15951239729823391</v>
+      </c>
+      <c r="L38" s="3">
+        <v>80</v>
+      </c>
+      <c r="M38" s="3">
+        <v>29</v>
+      </c>
+      <c r="N38" s="3">
+        <v>-0.22209333506674969</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>121423700</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C39" s="3">
+        <v>80</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>-2.284237285754918</v>
+      </c>
+      <c r="F39" s="3">
+        <v>45</v>
+      </c>
+      <c r="G39" s="3">
+        <v>13</v>
+      </c>
+      <c r="H39" s="3">
+        <v>-0.6809084840390548</v>
+      </c>
+      <c r="I39" s="3">
+        <v>40</v>
+      </c>
+      <c r="J39" s="3">
+        <v>20</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.29746906523184152</v>
+      </c>
+      <c r="L39" s="3">
+        <v>80</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3">
+        <v>-2.3292381251753582</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>121423800</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C40" s="3">
+        <v>80</v>
+      </c>
+      <c r="D40" s="3">
+        <v>53</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.67629383394839915</v>
+      </c>
+      <c r="F40" s="3">
+        <v>45</v>
+      </c>
+      <c r="G40" s="3">
+        <v>15</v>
+      </c>
+      <c r="H40" s="3">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="I40" s="3">
+        <v>40</v>
+      </c>
+      <c r="J40" s="3">
+        <v>3</v>
+      </c>
+      <c r="K40" s="3">
+        <v>-1.6447021505209789</v>
+      </c>
+      <c r="L40" s="3">
+        <v>80</v>
+      </c>
+      <c r="M40" s="3">
+        <v>31</v>
+      </c>
+      <c r="N40" s="3">
+        <v>-7.6773004714431922E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>121423900</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C41" s="3">
+        <v>80</v>
+      </c>
+      <c r="D41" s="3">
+        <v>35</v>
+      </c>
+      <c r="E41" s="3">
+        <v>-0.32916956519612373</v>
+      </c>
+      <c r="F41" s="3">
+        <v>45</v>
+      </c>
+      <c r="G41" s="3">
+        <v>15</v>
+      </c>
+      <c r="H41" s="3">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="I41" s="3">
+        <v>40</v>
+      </c>
+      <c r="J41" s="3">
+        <v>8</v>
+      </c>
+      <c r="K41" s="3">
+        <v>-1.0734753223583839</v>
+      </c>
+      <c r="L41" s="3">
+        <v>80</v>
+      </c>
+      <c r="M41" s="3">
+        <v>26</v>
+      </c>
+      <c r="N41" s="3">
+        <v>-0.44007383059522648</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>121424000</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C42" s="3">
+        <v>80</v>
+      </c>
+      <c r="D42" s="3">
+        <v>42</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6.1843978915635173E-2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>45</v>
+      </c>
+      <c r="G42" s="3">
+        <v>20</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="I42" s="3">
+        <v>40</v>
+      </c>
+      <c r="J42" s="3">
+        <v>20</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0.29746906523184152</v>
+      </c>
+      <c r="L42" s="3">
+        <v>80</v>
+      </c>
+      <c r="M42" s="3">
+        <v>28</v>
+      </c>
+      <c r="N42" s="3">
+        <v>-0.29475350024290869</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>121424100</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C43" s="3">
+        <v>80</v>
+      </c>
+      <c r="D43" s="3">
+        <v>29</v>
+      </c>
+      <c r="E43" s="3">
+        <v>-0.66432403157763142</v>
+      </c>
+      <c r="F43" s="3">
+        <v>45</v>
+      </c>
+      <c r="G43" s="3">
+        <v>15</v>
+      </c>
+      <c r="H43" s="3">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="I43" s="3">
+        <v>40</v>
+      </c>
+      <c r="J43" s="3">
+        <v>26</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0.98294125902695439</v>
+      </c>
+      <c r="L43" s="3">
+        <v>80</v>
+      </c>
+      <c r="M43" s="3">
+        <v>20</v>
+      </c>
+      <c r="N43" s="3">
+        <v>-0.87603482165218005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>121424200</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="C44" s="3">
+        <v>80</v>
+      </c>
+      <c r="D44" s="3">
+        <v>25</v>
+      </c>
+      <c r="E44" s="3">
+        <v>-0.88776034249863645</v>
+      </c>
+      <c r="F44" s="3">
+        <v>45</v>
+      </c>
+      <c r="G44" s="3">
+        <v>20</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="I44" s="3">
+        <v>40</v>
+      </c>
+      <c r="J44" s="3">
+        <v>11</v>
+      </c>
+      <c r="K44" s="3">
+        <v>-0.73073922546082803</v>
+      </c>
+      <c r="L44" s="3">
+        <v>80</v>
+      </c>
+      <c r="M44" s="3">
+        <v>22</v>
+      </c>
+      <c r="N44" s="3">
+        <v>-0.73071449129986221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>121424300</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C45" s="3">
+        <v>80</v>
+      </c>
+      <c r="D45" s="3">
+        <v>28</v>
+      </c>
+      <c r="E45" s="3">
+        <v>-0.72018310930788265</v>
+      </c>
+      <c r="F45" s="3">
+        <v>45</v>
+      </c>
+      <c r="G45" s="3">
+        <v>18</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>40</v>
+      </c>
+      <c r="J45" s="3">
+        <v>15</v>
+      </c>
+      <c r="K45" s="3">
+        <v>-0.27375776293075271</v>
+      </c>
+      <c r="L45" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>121424400</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="C46" s="3">
+        <v>80</v>
+      </c>
+      <c r="F46" s="3">
+        <v>45</v>
+      </c>
+      <c r="G46" s="3">
+        <v>10</v>
+      </c>
+      <c r="H46" s="3">
+        <v>-1.089453574462488</v>
+      </c>
+      <c r="I46" s="3">
+        <v>40</v>
+      </c>
+      <c r="J46" s="3">
+        <v>10</v>
+      </c>
+      <c r="K46" s="3">
+        <v>-0.84498459109334678</v>
+      </c>
+      <c r="L46" s="3">
+        <v>80</v>
+      </c>
+      <c r="M46" s="3">
+        <v>18</v>
+      </c>
+      <c r="N46" s="3">
+        <v>-1.0213551520044979</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>121424500</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="C47" s="3">
+        <v>80</v>
+      </c>
+      <c r="D47" s="3">
+        <v>54</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.73215291167865049</v>
+      </c>
+      <c r="F47" s="3">
+        <v>45</v>
+      </c>
+      <c r="G47" s="3">
+        <v>15</v>
+      </c>
+      <c r="H47" s="3">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="I47" s="3">
+        <v>40</v>
+      </c>
+      <c r="J47" s="3">
+        <v>18</v>
+      </c>
+      <c r="K47" s="3">
+        <v>6.8978333966803806E-2</v>
+      </c>
+      <c r="L47" s="3">
+        <v>80</v>
+      </c>
+      <c r="M47" s="3">
+        <v>31</v>
+      </c>
+      <c r="N47" s="3">
+        <v>-7.6773004714431922E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>121424600</v>
       </c>
       <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="3">
+        <v>80</v>
+      </c>
+      <c r="D48" s="3">
+        <v>33</v>
+      </c>
+      <c r="E48" s="3">
+        <v>-0.44088772065662629</v>
+      </c>
+      <c r="F48" s="3">
+        <v>45</v>
+      </c>
+      <c r="G48" s="3">
+        <v>10</v>
+      </c>
+      <c r="H48" s="3">
+        <v>-1.089453574462488</v>
+      </c>
+      <c r="I48" s="3">
+        <v>40</v>
+      </c>
+      <c r="J48" s="3">
+        <v>26</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0.98294125902695439</v>
+      </c>
+      <c r="L48" s="3">
+        <v>80</v>
+      </c>
+      <c r="M48" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N48" s="3">
+        <v>1.0131294729279521</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>121424700</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="C49" s="3">
+        <v>80</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>-2.284237285754918</v>
+      </c>
+      <c r="F49" s="3">
+        <v>45</v>
+      </c>
+      <c r="I49" s="3">
+        <v>40</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>-1.987438247418535</v>
+      </c>
+      <c r="L49" s="3">
+        <v>80</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>-2.3292381251753582</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>121424800</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="C50" s="3">
+        <v>80</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>-2.284237285754918</v>
+      </c>
+      <c r="F50" s="3">
+        <v>45</v>
+      </c>
+      <c r="G50" s="3">
+        <v>15</v>
+      </c>
+      <c r="H50" s="3">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="I50" s="3">
+        <v>40</v>
+      </c>
+      <c r="J50" s="3">
+        <v>21</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0.41171443086436033</v>
+      </c>
+      <c r="L50" s="3">
+        <v>80</v>
+      </c>
+      <c r="M50" s="3">
+        <v>34</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0.14120749081404491</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>121424900</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="C51" s="3">
+        <v>80</v>
+      </c>
+      <c r="D51" s="3">
+        <v>27</v>
+      </c>
+      <c r="E51" s="3">
+        <v>-0.77604218703813388</v>
+      </c>
+      <c r="F51" s="3">
+        <v>45</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <v>40</v>
+      </c>
+      <c r="L51" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>121425000</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="C52" s="3">
+        <v>80</v>
+      </c>
+      <c r="D52" s="3">
+        <v>65</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1.346602766711414</v>
+      </c>
+      <c r="F52" s="3">
+        <v>45</v>
+      </c>
+      <c r="G52" s="3">
+        <v>20</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="I52" s="3">
+        <v>40</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
+        <v>-1.6447021505209789</v>
+      </c>
+      <c r="L52" s="3">
+        <v>80</v>
+      </c>
+      <c r="M52" s="3">
+        <v>19</v>
+      </c>
+      <c r="N52" s="3">
+        <v>-0.94869498682833897</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>121425100</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="C53" s="3">
+        <v>80</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>-2.284237285754918</v>
+      </c>
+      <c r="F53" s="3">
+        <v>45</v>
+      </c>
+      <c r="G53" s="3">
+        <v>15</v>
+      </c>
+      <c r="H53" s="3">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="I53" s="3">
+        <v>40</v>
+      </c>
+      <c r="J53" s="3">
+        <v>11</v>
+      </c>
+      <c r="K53" s="3">
+        <v>-0.73073922546082803</v>
+      </c>
+      <c r="L53" s="3">
+        <v>80</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>-2.3292381251753582</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>121425200</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="C54" s="3">
+        <v>80</v>
+      </c>
+      <c r="D54" s="3">
+        <v>42</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6.1843978915635173E-2</v>
+      </c>
+      <c r="F54" s="3">
+        <v>45</v>
+      </c>
+      <c r="G54" s="3">
+        <v>15</v>
+      </c>
+      <c r="H54" s="3">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="I54" s="3">
+        <v>40</v>
+      </c>
+      <c r="J54" s="3">
+        <v>31</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1.554168087189548</v>
+      </c>
+      <c r="L54" s="3">
+        <v>80</v>
+      </c>
+      <c r="M54" s="3">
+        <v>30</v>
+      </c>
+      <c r="N54" s="3">
+        <v>-0.1494331698905908</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>121425300</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="C55" s="3">
+        <v>80</v>
+      </c>
+      <c r="D55" s="3">
+        <v>39</v>
+      </c>
+      <c r="E55" s="3">
+        <v>-0.10573325427511859</v>
+      </c>
+      <c r="F55" s="3">
+        <v>45</v>
+      </c>
+      <c r="G55" s="3">
+        <v>20</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0.2723633936156219</v>
+      </c>
+      <c r="I55" s="3">
+        <v>40</v>
+      </c>
+      <c r="J55" s="3">
+        <v>16</v>
+      </c>
+      <c r="K55" s="3">
+        <v>-0.15951239729823391</v>
+      </c>
+      <c r="L55" s="3">
+        <v>80</v>
+      </c>
+      <c r="M55" s="3">
+        <v>23</v>
+      </c>
+      <c r="N55" s="3">
+        <v>-0.65805432612370329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>121425400</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="C56" s="3">
+        <v>80</v>
+      </c>
+      <c r="D56" s="3">
+        <v>53</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0.67629383394839915</v>
+      </c>
+      <c r="F56" s="3">
+        <v>45</v>
+      </c>
+      <c r="G56" s="3">
+        <v>15</v>
+      </c>
+      <c r="H56" s="3">
+        <v>-0.40854509042343279</v>
+      </c>
+      <c r="I56" s="3">
+        <v>40</v>
+      </c>
+      <c r="L56" s="3">
+        <v>80</v>
+      </c>
+      <c r="M56" s="3">
+        <v>34</v>
+      </c>
+      <c r="N56" s="3">
+        <v>0.14120749081404491</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>